--- a/2018_data/Chad_Beebe2018.xlsx
+++ b/2018_data/Chad_Beebe2018.xlsx
@@ -12,89 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
-  <si>
-    <t>https://www.pro-football-reference.com/players/B/BeebCh00/gamelog/2018/</t>
-  </si>
-  <si>
-    <t>2018-11-04</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>24.156</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>W 24-9</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>100.0%</t>
-  </si>
-  <si>
-    <t>2018-11-18</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>24.170</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>L 20-25</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>2018-12-23</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>24.205</t>
-  </si>
-  <si>
-    <t>W 27-9</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,143 +353,266 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Beebe</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2018-11-04</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>24.156</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>W 24-9</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr"/>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="S1" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Beebe</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2018-11-18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>24.170</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>L 20-25</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Beebe</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2018-12-23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>24.205</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>W 27-9</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s"/>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
